--- a/Test/Lawnmower/T2/Sensors_data_1000015.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000015.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.979209881084818</v>
+        <v>0.9225845509633611</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0009935494186919074</v>
+        <v>0.003572327846958306</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2963873020423192</v>
+        <v>0.3118443004066022</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9023568012546735</v>
+        <v>0.9708645560237352</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004796040843347994</v>
+        <v>0.002336830171589275</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211065916927422</v>
+        <v>0.2525728879294775</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9204140291905945</v>
+        <v>0.2870285075242264</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001704089832233371</v>
+        <v>0.0378105266913257</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09927073801618255</v>
+        <v>0.480271430668857</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7712794038202508</v>
+        <v>0.9884762763869964</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00566185341342893</v>
+        <v>0.0006494875772628345</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3200958369413269</v>
+        <v>0.04841483062754193</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -575,18 +575,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9660271205638316</v>
+        <v>0.9840620777978706</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001579252262861809</v>
+        <v>0.0008274970577705094</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03512906004568006</v>
+        <v>0.0341298155206804</v>
       </c>
       <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6047058944653574</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01889090824196674</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2888352201791021</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
